--- a/data/pocus/pocus-sources_name.xlsx
+++ b/data/pocus/pocus-sources_name.xlsx
@@ -9,24 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15960" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15960" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="convex" sheetId="1" r:id="rId1"/>
-    <sheet name="linear-not used yet" sheetId="2" r:id="rId2"/>
-    <sheet name="not used" sheetId="3" r:id="rId3"/>
-    <sheet name="convex for arxviv" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="linear-not used yet" sheetId="2" r:id="rId4"/>
+    <sheet name="not used" sheetId="3" r:id="rId5"/>
+    <sheet name="convex for arxviv" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">convex!$A$1:$F$69</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'convex for arxviv'!$A$1:$C$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'convex for arxviv'!$A$1:$C$41</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="224">
   <si>
     <t>Cov-Atlas+(44).gif</t>
   </si>
@@ -679,9 +681,6 @@
     <t>MDs comment</t>
   </si>
   <si>
-    <t>green dot, same as Cov-Butterfly-Consolidation_Example 4.mp4 but longer version</t>
-  </si>
-  <si>
     <t>consolidaton et épaississement pleural + irrégularité pleurale</t>
   </si>
   <si>
@@ -689,13 +688,43 @@
   </si>
   <si>
     <t>Irregularités pleurales et lignes B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>green dot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>, same as Cov-Butterfly-Consolidation_Example 4.mp4 but longer version</t>
+    </r>
+  </si>
+  <si>
+    <t>Cov-Butterfly-Subpleural Basal Consolidation_Example 2.mp4</t>
+  </si>
+  <si>
+    <t>https://www.butterflynetwork.com/covid-clinical-category/  (name in video name )</t>
+  </si>
+  <si>
+    <t>Cov-Butterfly-Consolidation_Example 4.mp4 (same as Cov-Butterfly-Consolidation with Air Bronchograms.mp4 in shorter version)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -871,8 +900,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1050,6 +1086,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1288,7 +1336,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1372,6 +1420,25 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1695,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView topLeftCell="D31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2931,6 +2998,9 @@
       <c r="F54" s="30" t="s">
         <v>212</v>
       </c>
+      <c r="G54" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="I54" s="11" t="s">
         <v>215</v>
       </c>
@@ -2945,6 +3015,9 @@
       <c r="F55" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="G55" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="J55" s="11" t="s">
         <v>211</v>
       </c>
@@ -2956,8 +3029,11 @@
       <c r="F56" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="G56" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="I56" s="11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J56" s="11" t="s">
         <v>211</v>
@@ -2967,11 +3043,14 @@
       <c r="E57" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="G57" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="I57" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J57" s="11" t="s">
         <v>211</v>
@@ -2984,6 +3063,9 @@
       <c r="F58" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="G58" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="J58" s="11" t="s">
         <v>211</v>
       </c>
@@ -2995,8 +3077,11 @@
       <c r="F59" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="G59" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="I59" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J59" s="11" t="s">
         <v>211</v>
@@ -3009,6 +3094,9 @@
       <c r="F60" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="G60" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="J60" s="11" t="s">
         <v>211</v>
       </c>
@@ -3020,8 +3108,11 @@
       <c r="F61" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="G61" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="I61" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J61" s="11" t="s">
         <v>211</v>
@@ -3034,6 +3125,9 @@
       <c r="F62" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="G62" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="J62" s="11" t="s">
         <v>211</v>
       </c>
@@ -3045,6 +3139,9 @@
       <c r="F63" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="G63" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="J63" s="11" t="s">
         <v>211</v>
       </c>
@@ -3056,7 +3153,10 @@
       <c r="F64" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="G64" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I64" s="34" t="s">
         <v>187</v>
       </c>
       <c r="J64" s="11" t="s">
@@ -3070,6 +3170,9 @@
       <c r="F65" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="G65" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="J65" s="11" t="s">
         <v>211</v>
       </c>
@@ -3081,8 +3184,11 @@
       <c r="F66" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="G66" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="I66" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J66" s="11" t="s">
         <v>211</v>
@@ -3095,8 +3201,11 @@
       <c r="F67" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="G67" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="I67" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J67" s="11" t="s">
         <v>211</v>
@@ -3109,6 +3218,9 @@
       <c r="F68" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="G68" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="J68" s="11" t="s">
         <v>211</v>
       </c>
@@ -3120,8 +3232,19 @@
       <c r="F69" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="G69" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="J69" s="11" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="5:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="E70" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3144,17 +3267,547 @@
     <hyperlink ref="F53" r:id="rId15"/>
     <hyperlink ref="F54" r:id="rId16"/>
     <hyperlink ref="G53" r:id="rId17" location="lungfindings  (Normal Lung example 2)"/>
+    <hyperlink ref="F57" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C8:E37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="3:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f>D9*24</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E37" si="0">D10*24</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31">
+        <v>23</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A28">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3385,15 +4038,16 @@
     <hyperlink ref="D16" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId10"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3605,7 +4259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
